--- a/contas.xlsx
+++ b/contas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOURENXX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOURENXX\Desktop\automacao_instragram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,13 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="contas">Plan1!$A$1</definedName>
+    <definedName name="contas_instagram">Plan1!$A$1</definedName>
+    <definedName name="Contatos">Plan1!$A$1</definedName>
+    <definedName name="insta_contas">Plan1!$A$1</definedName>
+    <definedName name="perfil">Plan1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -346,7 +353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/contas.xlsx
+++ b/contas.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>lourenxx_g</t>
+    <t>julianabap.13</t>
   </si>
 </sst>
 </file>
@@ -353,9 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/contas.xlsx
+++ b/contas.xlsx
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>julianabap.13</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,13 +352,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/contas.xlsx
+++ b/contas.xlsx
@@ -31,7 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>lourenxx_g</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,7 +356,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/contas.xlsx
+++ b/contas.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>lourenxx_g</t>
+    <t>julianabap.13</t>
   </si>
 </sst>
 </file>

--- a/contas.xlsx
+++ b/contas.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="contas">Plan1!$A$1</definedName>
-    <definedName name="contas_instagram">Plan1!$A$1</definedName>
-    <definedName name="Contatos">Plan1!$A$1</definedName>
-    <definedName name="insta_contas">Plan1!$A$1</definedName>
+    <definedName name="contas">Plan1!#REF!</definedName>
+    <definedName name="contas_instagram">Plan1!#REF!</definedName>
+    <definedName name="Contatos">Plan1!#REF!</definedName>
+    <definedName name="insta_contas">Plan1!#REF!</definedName>
     <definedName name="perfil">Plan1!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>julianabap.13</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,16 +349,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/contas.xlsx
+++ b/contas.xlsx
@@ -31,7 +31,302 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+  <si>
+    <t>niltongally</t>
+  </si>
+  <si>
+    <t>natyelle_melolima</t>
+  </si>
+  <si>
+    <t>lecabali</t>
+  </si>
+  <si>
+    <t>maryjudes</t>
+  </si>
+  <si>
+    <t>sheyla_araujoo</t>
+  </si>
+  <si>
+    <t>maga.paulaf</t>
+  </si>
+  <si>
+    <t>ciceroeduuu</t>
+  </si>
+  <si>
+    <t>zenaide.regis</t>
+  </si>
+  <si>
+    <t>leticiaoliveira.teixeira</t>
+  </si>
+  <si>
+    <t>mariliaborgneth</t>
+  </si>
+  <si>
+    <t>alinealves.230512</t>
+  </si>
+  <si>
+    <t>jaquelinegabrielrodrigues</t>
+  </si>
+  <si>
+    <t>denisclaytondesouza</t>
+  </si>
+  <si>
+    <t>vaniafalbo</t>
+  </si>
+  <si>
+    <t>leide.souzasx</t>
+  </si>
+  <si>
+    <t>fantacholialine</t>
+  </si>
+  <si>
+    <t>tau_oliveira</t>
+  </si>
+  <si>
+    <t>naty.baia</t>
+  </si>
+  <si>
+    <t>psalms126</t>
+  </si>
+  <si>
+    <t>samuka_trumpet</t>
+  </si>
+  <si>
+    <t>thaisjeftearaujo</t>
+  </si>
+  <si>
+    <t>djaniracristinaroque</t>
+  </si>
+  <si>
+    <t>simonikuwabara</t>
+  </si>
+  <si>
+    <t>andrearibeiro604</t>
+  </si>
+  <si>
+    <t>andressatatica</t>
+  </si>
+  <si>
+    <t>vincius_vieira</t>
+  </si>
+  <si>
+    <t>pham_balbino</t>
+  </si>
+  <si>
+    <t>recarvalho.familia</t>
+  </si>
+  <si>
+    <t>a.oficinadogauchinhofc</t>
+  </si>
+  <si>
+    <t>di.wkr</t>
+  </si>
+  <si>
+    <t>rodrigo.castanhodemoraes</t>
+  </si>
+  <si>
+    <t>judeotti</t>
+  </si>
+  <si>
+    <t>tauany_alphaenergiasolar</t>
+  </si>
+  <si>
+    <t>discipulandomeusfilhos</t>
+  </si>
+  <si>
+    <t>carlinhapedron</t>
+  </si>
+  <si>
+    <t>erica.tori</t>
+  </si>
+  <si>
+    <t>ligiasandrade84</t>
+  </si>
+  <si>
+    <t>lisianeireijo</t>
+  </si>
+  <si>
+    <t>elisangelamoura622</t>
+  </si>
+  <si>
+    <t>santosinvencao</t>
+  </si>
+  <si>
+    <t>karenmieko</t>
+  </si>
+  <si>
+    <t>shelima_lifestyle</t>
+  </si>
+  <si>
+    <t>joana_wibi</t>
+  </si>
+  <si>
+    <t>julianaalcantara073</t>
+  </si>
+  <si>
+    <t>segueofer</t>
+  </si>
+  <si>
+    <t>biancaneribaia</t>
+  </si>
+  <si>
+    <t>gomidesva</t>
+  </si>
+  <si>
+    <t>silvca2022</t>
+  </si>
+  <si>
+    <t>ateliedaluestetica</t>
+  </si>
+  <si>
+    <t>monica.i.r.a</t>
+  </si>
+  <si>
+    <t>carla_kiyoko</t>
+  </si>
+  <si>
+    <t>gataaalinee</t>
+  </si>
+  <si>
+    <t>elaine_fim</t>
+  </si>
+  <si>
+    <t>sjonathanlimada</t>
+  </si>
+  <si>
+    <t>crisgomesbibiano</t>
+  </si>
+  <si>
+    <t>cintiacoutomk</t>
+  </si>
+  <si>
+    <t>edd_bg21</t>
+  </si>
+  <si>
+    <t>vaninholocutor</t>
+  </si>
+  <si>
+    <t>san_e_dani</t>
+  </si>
+  <si>
+    <t>e.zanzaa</t>
+  </si>
+  <si>
+    <t>febiamanu</t>
+  </si>
+  <si>
+    <t>vivioliveira.tudf</t>
+  </si>
+  <si>
+    <t>14.03.94</t>
+  </si>
+  <si>
+    <t>narafigueiredoo</t>
+  </si>
+  <si>
+    <t>leticiafrancaj</t>
+  </si>
+  <si>
+    <t>flabellasempre</t>
+  </si>
+  <si>
+    <t>henrique_cruciak</t>
+  </si>
+  <si>
+    <t>lucimar.kempe</t>
+  </si>
+  <si>
+    <t>enzoeamanda</t>
+  </si>
+  <si>
+    <t>samanthasantosr</t>
+  </si>
+  <si>
+    <t>kaju15223</t>
+  </si>
+  <si>
+    <t>debora_melotosi</t>
+  </si>
+  <si>
+    <t>juliana_e_douglas_e_duda</t>
+  </si>
+  <si>
+    <t>melissachic4</t>
+  </si>
+  <si>
+    <t>jeessiicaari</t>
+  </si>
+  <si>
+    <t>thata_huttenlocher</t>
+  </si>
+  <si>
+    <t>deinhapassos_bell</t>
+  </si>
+  <si>
+    <t>erikacostasanntos</t>
+  </si>
+  <si>
+    <t>barbara.manso</t>
+  </si>
+  <si>
+    <t>anapaula.cordeiroo</t>
+  </si>
+  <si>
+    <t>silmara.souza.31508</t>
+  </si>
+  <si>
+    <t>leticiacaff</t>
+  </si>
+  <si>
+    <t>zairafernandesazevedo</t>
+  </si>
+  <si>
+    <t>analucia.goncalves.522</t>
+  </si>
+  <si>
+    <t>juliafalmeida</t>
+  </si>
+  <si>
+    <t>prosvaldooliveira</t>
+  </si>
+  <si>
+    <t>deiaafelicio</t>
+  </si>
+  <si>
+    <t>marcela_azevedo_</t>
+  </si>
+  <si>
+    <t>karol.c.xavier</t>
+  </si>
+  <si>
+    <t>abreululu</t>
+  </si>
+  <si>
+    <t>valeria.ferreira.1800</t>
+  </si>
+  <si>
+    <t>umapratres</t>
+  </si>
+  <si>
+    <t>prashelitearaujooliveira</t>
+  </si>
+  <si>
+    <t>gabihasson</t>
+  </si>
+  <si>
+    <t>adriguimas</t>
+  </si>
+  <si>
+    <t>jennifer_granzotto</t>
+  </si>
+  <si>
+    <t>lidi_pcruz</t>
+  </si>
+  <si>
+    <t>julietacarpinelli</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,14 +642,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>